--- a/data-folder/Données_groupe_04.xlsx
+++ b/data-folder/Données_groupe_04.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18570" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="données04" sheetId="2" r:id="rId1"/>
@@ -465,13 +465,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>7.1400000000000006</v>
+        <v>5.71</v>
       </c>
       <c r="B13">
         <v>53</v>
       </c>
       <c r="C13">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -608,13 +608,13 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>7.7399999999999993</v>
+        <v>6.34</v>
       </c>
       <c r="B26">
         <v>81</v>
       </c>
       <c r="C26">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,13 +630,13 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>45.019999999999996</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="B28">
         <v>86</v>
       </c>
       <c r="C28">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -652,46 +652,46 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>68.040000000000006</v>
+        <v>5.09</v>
       </c>
       <c r="B30">
         <v>92</v>
       </c>
       <c r="C30">
-        <v>130</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>19.600000000000001</v>
+        <v>15</v>
       </c>
       <c r="B31">
         <v>62</v>
       </c>
       <c r="C31">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>79.010000000000005</v>
+        <v>21.85</v>
       </c>
       <c r="B32">
         <v>81</v>
       </c>
       <c r="C32">
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>24.240000000000002</v>
+        <v>17.89</v>
       </c>
       <c r="B33">
         <v>61</v>
       </c>
       <c r="C33">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -707,24 +707,24 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>12.45</v>
+        <v>9.48</v>
       </c>
       <c r="B35">
         <v>59</v>
       </c>
       <c r="C35">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>60.11</v>
+        <v>7.37</v>
       </c>
       <c r="B36">
         <v>91</v>
       </c>
       <c r="C36">
-        <v>125</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -740,13 +740,13 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>62.250000000000007</v>
+        <v>60.089999999999996</v>
       </c>
       <c r="B38">
         <v>47</v>
       </c>
       <c r="C38">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,13 +762,13 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>53.459999999999994</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="B40">
         <v>89</v>
       </c>
       <c r="C40">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,13 +795,13 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>68.320000000000007</v>
+        <v>61.77</v>
       </c>
       <c r="B43">
         <v>51</v>
       </c>
       <c r="C43">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,24 +828,24 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>54.53</v>
+        <v>42.699999999999996</v>
       </c>
       <c r="B46">
         <v>56</v>
       </c>
       <c r="C46">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>79.33</v>
+        <v>56.74</v>
       </c>
       <c r="B47">
         <v>58</v>
       </c>
       <c r="C47">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,35 +872,35 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>64.42</v>
+        <v>45.800000000000004</v>
       </c>
       <c r="B50">
         <v>59</v>
       </c>
       <c r="C50">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>90.39</v>
+        <v>85.36</v>
       </c>
       <c r="B51">
         <v>48</v>
       </c>
       <c r="C51">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>31.869999999999997</v>
+        <v>25.069999999999997</v>
       </c>
       <c r="B52">
         <v>57</v>
       </c>
       <c r="C52">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
